--- a/PhieuVanDap - CD2017_1 - v0.5.xlsx
+++ b/PhieuVanDap - CD2017_1 - v0.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\zzzGiangDay\_LTUDQL1\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DoAnCuoiKiLTQLUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1298,7 +1298,9 @@
       <c r="C40" s="46">
         <v>-0.5</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="44">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="47"/>
@@ -1308,7 +1310,9 @@
       <c r="C41" s="46">
         <v>-0.5</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="44">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="47"/>
@@ -1318,7 +1322,9 @@
       <c r="C42" s="46">
         <v>-0.25</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="47"/>
@@ -1328,7 +1334,9 @@
       <c r="C43" s="46">
         <v>-0.25</v>
       </c>
-      <c r="D43" s="44"/>
+      <c r="D43" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="44" t="s">

--- a/PhieuVanDap - CD2017_1 - v0.5.xlsx
+++ b/PhieuVanDap - CD2017_1 - v0.5.xlsx
@@ -911,7 +911,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1354,7 +1354,9 @@
       <c r="C45" s="49">
         <v>-0.5</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="47">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="44"/>
@@ -1364,7 +1366,9 @@
       <c r="C46" s="46">
         <v>-0.5</v>
       </c>
-      <c r="D46" s="44"/>
+      <c r="D46" s="44">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="44" t="s">
